--- a/experiments/programs/SeeDB_python/DiViz_airbnb/room_type='Entire_home'.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_airbnb/room_type='Entire_home'.xlsx
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>7.5085221278065287E-2</v>
+        <v>7.5048914016328322E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>6.8236719133727516E-2</v>
+        <v>6.8192141339623327E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>5.6752297771204753E-2</v>
+        <v>5.6711526829902333E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>5.1863515073436957E-2</v>
+        <v>5.1917117106043152E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>5.0082723651304228E-2</v>
+        <v>5.001535590561855E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>4.8311184065347193E-2</v>
+        <v>4.8158029897877291E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.43168696543957408</v>
+        <v>0.45719128658069091</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0.17160616791407579</v>
+        <v>0.17580437891423281</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>0.14075396501153339</v>
+        <v>0.14463815981609829</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>0.12738075308548821</v>
+        <v>0.13320909625701269</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>6.2017132823963289E-2</v>
+        <v>6.3570150971516207E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>4.7431553016921507E-2</v>
+        <v>4.7406271709636717E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="D17">
-        <v>2.453903331537223E-2</v>
+        <v>2.45791349959424E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="D18">
-        <v>1.8750910761044948E-2</v>
+        <v>1.8748926162038729E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="D19">
-        <v>1.091795030754752E-2</v>
+        <v>1.0899770474176651E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>5.9538359641977109E-2</v>
+        <v>5.9535284552201397E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="D21">
-        <v>5.7641081415643412E-2</v>
+        <v>5.7640012027238507E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="D23">
-        <v>3.4434718302151342E-2</v>
+        <v>3.4431251097737148E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>12</v>
       </c>
       <c r="D24">
-        <v>2.480233184609313E-2</v>
+        <v>2.480245090811101E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="D25">
-        <v>2.233329192681437E-2</v>
+        <v>2.2332371297946789E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="D26">
-        <v>2.0328918328362391E-2</v>
+        <v>2.0345437968736269E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
